--- a/TestData/Firefox/S0155_DeleteCase.xlsx
+++ b/TestData/Firefox/S0155_DeleteCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\velsp\eclipse-workspace\FullStackAutomationPgm\TestData\Firefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67272BDA-BB1E-4FD0-A3D4-A44BEF20ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2357CD1C-D0A1-4D65-BDFE-C7DA987059E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F0947FD-ADC8-4020-92FB-4AE3B928E5BA}"/>
   </bookViews>
@@ -32,102 +32,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>caseID</t>
   </si>
   <si>
-    <t>00001192</t>
+    <t>00001323</t>
   </si>
   <si>
-    <t>00001196</t>
+    <t>00001326</t>
   </si>
   <si>
-    <t>00001198</t>
-  </si>
-  <si>
-    <t>00001200</t>
-  </si>
-  <si>
-    <t>00001202</t>
-  </si>
-  <si>
-    <t>00001204</t>
-  </si>
-  <si>
-    <t>00001216</t>
-  </si>
-  <si>
-    <t>00001222</t>
-  </si>
-  <si>
-    <t>00001224</t>
-  </si>
-  <si>
-    <t>00001227</t>
-  </si>
-  <si>
-    <t>00001228</t>
-  </si>
-  <si>
-    <t>00001230</t>
-  </si>
-  <si>
-    <t>00001232</t>
-  </si>
-  <si>
-    <t>00001234</t>
-  </si>
-  <si>
-    <t>00001249</t>
-  </si>
-  <si>
-    <t>00001251</t>
-  </si>
-  <si>
-    <t>00001252</t>
-  </si>
-  <si>
-    <t>00001253</t>
-  </si>
-  <si>
-    <t>00001256</t>
-  </si>
-  <si>
-    <t>00001258</t>
-  </si>
-  <si>
-    <t>00001260</t>
-  </si>
-  <si>
-    <t>00001262</t>
-  </si>
-  <si>
-    <t>00001263</t>
-  </si>
-  <si>
-    <t>00001276</t>
-  </si>
-  <si>
-    <t>00001277</t>
-  </si>
-  <si>
-    <t>00001278</t>
-  </si>
-  <si>
-    <t>00001286</t>
-  </si>
-  <si>
-    <t>00001294</t>
-  </si>
-  <si>
-    <t>00001295</t>
-  </si>
-  <si>
-    <t>00001297</t>
-  </si>
-  <si>
-    <t>00001299</t>
+    <t>00001328</t>
   </si>
 </sst>
 </file>
@@ -483,7 +399,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,17 +411,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
